--- a/Doc/url接口/url.xlsx
+++ b/Doc/url接口/url.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>url</t>
   </si>
@@ -55,7 +55,7 @@
     <t>DELETE</t>
   </si>
   <si>
-    <t>boolean</t>
+    <t>操作成功与否，valid：1成功，valid：-1失败，valid：0未登录</t>
   </si>
   <si>
     <t>删除一个questionnaire</t>
@@ -187,7 +187,7 @@
     <t>userName,email,password（加密）</t>
   </si>
   <si>
-    <t>registerSuccess:1/0,User</t>
+    <t>registerSuccess:1/0</t>
   </si>
   <si>
     <t>注册</t>
@@ -197,6 +197,18 @@
   </si>
   <si>
     <t>questionnaireStatistic/questionnaireID</t>
+  </si>
+  <si>
+    <t>registerValide?token=XXX&amp;email=XXX</t>
+  </si>
+  <si>
+    <t>registerValide:1/0,User</t>
+  </si>
+  <si>
+    <t>验证邮箱</t>
+  </si>
+  <si>
+    <t>token为根据时间和email生成的随机量，email为邮箱</t>
   </si>
 </sst>
 </file>
@@ -204,12 +216,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -218,8 +230,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,8 +259,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,24 +313,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,48 +359,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,36 +380,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -371,187 +390,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,35 +581,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -609,6 +599,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -620,21 +639,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,8 +661,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,152 +686,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -820,6 +839,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1140,7 +1165,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1203,7 +1228,7 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
@@ -1223,7 +1248,7 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
@@ -1481,7 +1506,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="50" customHeight="1"/>
+    <row r="18" customFormat="1" ht="50" customHeight="1" spans="1:6">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/Doc/url接口/url.xlsx
+++ b/Doc/url接口/url.xlsx
@@ -82,7 +82,7 @@
     <t>保存questionnaire</t>
   </si>
   <si>
-    <t>questionnaire/search？name=XXXX</t>
+    <t>questionnaire/search?page=XXX&amp;pageSize=XXX&amp;name=XXXX</t>
   </si>
   <si>
     <t>一个questionnaire的json对象的list</t>
@@ -221,7 +221,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -230,10 +230,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,6 +241,22 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,24 +269,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,7 +309,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,22 +324,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,14 +334,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,15 +346,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,21 +373,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -390,187 +383,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,6 +574,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -601,6 +603,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -613,32 +639,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,26 +660,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,152 +679,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,12 +832,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1165,7 +1152,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1228,7 +1215,7 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
@@ -1248,7 +1235,7 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">

--- a/Doc/url接口/url.xlsx
+++ b/Doc/url接口/url.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>url</t>
   </si>
@@ -85,18 +85,21 @@
     <t>questionnaire/search?page=XXX&amp;pageSize=XXX&amp;name=XXXX</t>
   </si>
   <si>
+    <t>一个questionnaire的json对象的list{count:XXX,items:[]}</t>
+  </si>
+  <si>
+    <t>查找问卷</t>
+  </si>
+  <si>
+    <t>name为查找的关键字，根据问卷名称进行模糊查找</t>
+  </si>
+  <si>
+    <t>questionnaire/random？size=XXX</t>
+  </si>
+  <si>
     <t>一个questionnaire的json对象的list</t>
   </si>
   <si>
-    <t>查找问卷</t>
-  </si>
-  <si>
-    <t>name为查找的关键字，根据问卷名称进行模糊查找</t>
-  </si>
-  <si>
-    <t>questionnaire/random？size=XXX</t>
-  </si>
-  <si>
     <t>随机获得size份问卷</t>
   </si>
   <si>
@@ -209,6 +212,83 @@
   </si>
   <si>
     <t>token为根据时间和email生成的随机量，email为邮箱</t>
+  </si>
+  <si>
+    <t>json数组。</t>
+  </si>
+  <si>
+    <t>查询某个特定用户的创建问卷</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>valid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示用户有没有登录，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为登录，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为未登录。其余为问卷数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"valid":1,"questionnaires":[{"_id":{"$oid":"5962d72013b40f3b37f9ef56"},"paperTitle":"testq","createDate":"2017-07-10T01:23:44.470Z","status":0,"authorId":5,"questionnaireId":"5962d72013b40f3b37f9ef56"}]}</t>
+    </r>
+  </si>
+  <si>
+    <t>allQuestionnaire?page=XXX&amp;pageSize=&amp;&amp;&amp;</t>
+  </si>
+  <si>
+    <t>所有问卷（分页）</t>
   </si>
 </sst>
 </file>
@@ -221,7 +301,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -230,6 +310,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -239,6 +332,67 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,6 +406,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -260,42 +422,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,58 +446,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,6 +459,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -389,181 +481,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,8 +672,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,42 +747,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,172 +766,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -833,6 +925,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1149,10 +1247,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1275,7 +1373,7 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E6" t="s">
@@ -1296,18 +1394,18 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="50" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -1316,10 +1414,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -1327,7 +1425,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="50" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -1336,10 +1434,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -1347,19 +1445,19 @@
     </row>
     <row r="10" ht="50" customHeight="1" spans="1:6">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -1367,7 +1465,7 @@
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:6">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -1376,10 +1474,10 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -1387,7 +1485,7 @@
     </row>
     <row r="12" ht="50" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1396,30 +1494,30 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" ht="50" customHeight="1" spans="1:6">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -1427,7 +1525,7 @@
     </row>
     <row r="14" ht="50" customHeight="1" spans="1:6">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -1439,7 +1537,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -1447,7 +1545,7 @@
     </row>
     <row r="15" customFormat="1" ht="50" customHeight="1" spans="1:6">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -1456,10 +1554,10 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -1467,27 +1565,27 @@
     </row>
     <row r="16" s="2" customFormat="1" ht="50" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="50" customHeight="1" spans="1:2">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1495,7 +1593,7 @@
     </row>
     <row r="18" customFormat="1" ht="50" customHeight="1" spans="1:6">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1504,14 +1602,52 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
-      </c>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="50" customHeight="1" spans="1:6">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="50" customHeight="1" spans="1:6">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/Doc/url接口/url.xlsx
+++ b/Doc/url接口/url.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>url</t>
   </si>
@@ -61,7 +61,7 @@
     <t>删除一个questionnaire</t>
   </si>
   <si>
-    <t>PUT</t>
+    <t>POST</t>
   </si>
   <si>
     <t>questionnaire的json对象</t>
@@ -73,9 +73,6 @@
     <t>questionnaire</t>
   </si>
   <si>
-    <t>POST</t>
-  </si>
-  <si>
     <t>保存的quesionnaire的JSON对象</t>
   </si>
   <si>
@@ -221,12 +218,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
       <t>valid</t>
     </r>
     <r>
@@ -281,7 +272,7 @@
         <rFont val="Arial Unicode MS"/>
         <charset val="134"/>
       </rPr>
-      <t>{"valid":1,"questionnaires":[{"_id":{"$oid":"5962d72013b40f3b37f9ef56"},"paperTitle":"testq","createDate":"2017-07-10T01:23:44.470Z","status":0,"authorId":5,"questionnaireId":"5962d72013b40f3b37f9ef56"}]}</t>
+      <t>{"valid":1,count:58,"questionnaires":[{"_id":{"$oid":"5962d72013b40f3b37f9ef56"},"paperTitle":"testq","createDate":"2017-07-10T01:23:44.470Z","status":0,"authorId":5,"questionnaireId":"5962d72013b40f3b37f9ef56"}]}</t>
     </r>
   </si>
   <si>
@@ -289,6 +280,18 @@
   </si>
   <si>
     <t>所有问卷（分页）</t>
+  </si>
+  <si>
+    <t>setQuestionnaireStatus</t>
+  </si>
+  <si>
+    <t>questionnaireId,status</t>
+  </si>
+  <si>
+    <t>{valid:1/0} 1为成功，0为失败</t>
+  </si>
+  <si>
+    <t>修改问卷状态</t>
   </si>
 </sst>
 </file>
@@ -296,18 +299,31 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Source Code Pro"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -324,6 +340,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -331,7 +362,100 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,117 +470,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -475,19 +491,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,7 +557,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,151 +659,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,6 +690,71 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,222 +782,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -926,10 +942,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1247,10 +1266,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1348,16 +1367,16 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -1365,7 +1384,7 @@
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1373,19 +1392,19 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1" spans="1:6">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1394,18 +1413,18 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="50" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -1414,10 +1433,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -1425,7 +1444,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="50" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -1434,10 +1453,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -1445,19 +1464,19 @@
     </row>
     <row r="10" ht="50" customHeight="1" spans="1:6">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -1465,7 +1484,7 @@
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:6">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -1474,10 +1493,10 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
         <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -1485,7 +1504,7 @@
     </row>
     <row r="12" ht="50" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1494,30 +1513,30 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
         <v>44</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" ht="50" customHeight="1" spans="1:6">
       <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
         <v>47</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -1525,7 +1544,7 @@
     </row>
     <row r="14" ht="50" customHeight="1" spans="1:6">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -1537,7 +1556,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -1545,7 +1564,7 @@
     </row>
     <row r="15" customFormat="1" ht="50" customHeight="1" spans="1:6">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -1554,10 +1573,10 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
         <v>54</v>
-      </c>
-      <c r="E15" t="s">
-        <v>55</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -1565,27 +1584,27 @@
     </row>
     <row r="16" s="2" customFormat="1" ht="50" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="50" customHeight="1" spans="1:2">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1593,7 +1612,7 @@
     </row>
     <row r="18" customFormat="1" ht="50" customHeight="1" spans="1:6">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1602,13 +1621,13 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
         <v>63</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>64</v>
-      </c>
-      <c r="F18" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="50" customHeight="1" spans="1:6">
@@ -1622,18 +1641,18 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
         <v>66</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="50" customHeight="1" spans="1:6">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1642,12 +1661,30 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="50" customHeight="1" spans="1:6">
+      <c r="A21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
